--- a/excel2json/excel/StoryConfig.xlsx
+++ b/excel2json/excel/StoryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EB3AC7-E14E-470E-8D46-9EF79E70EFFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7F68BB-F2F3-404E-9363-FAA5C112775F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>配置名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,42 +43,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遇见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>艾森和她在一个咖啡馆相遇，那是个下雨天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“艾森搭讪小公举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结婚啦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>每当闭上眼，黑暗中的他，不！是他们!抱着我的手，绕着我的喉，居高临下看着我卑微的挣扎，那宝石一样的眼眸中我看到只有冷漠，我只恨我自己，没能救活他，我逃不出这噩梦。</t>
+  </si>
+  <si>
+    <t>他们是谁！我害怕，谁来救救我！你不是叫我弟弟的吗？你不是说你会永远爱我吗？你知不知道他们把我架在火上时我还活着？我好痛，好痛，好痛。。。。。。</t>
+  </si>
+  <si>
+    <t>我害怕这样的自己，我已然分不清痛苦和快乐，火焰升起的时候，那惨叫是多么美妙啊，身边都是赞美的声音，可是为什么我心里好痛？我不懂，不懂，或者我真的病了吧，睡吧。</t>
+  </si>
+  <si>
+    <t>最终，你还是到这里了，现在该是你醒来的时刻了，我已经不恨你了，当火焰吞噬我的生命的时刻，我是幸福的，病痛的折磨已经让我无以为继，谢谢你，让我解脱，我亲爱的主人，别在自责了，我会一直陪着你的，在你每一个美丽的梦里。</t>
+  </si>
+  <si>
+    <t>梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫得了传染病，中世纪时期，生病的东西和死的东西都要烧掉，最后主角被逼破亲手烧死了自己得病的猫拯救了家人，主角在猫疼苦的喊叫中陷入深深的自责中，进而封闭内心，不断的自责和拯救了所有人的矛盾之中。最后人格分裂陷入黑暗世界，通关后被猫原谅获得救赎</t>
+  </si>
+  <si>
+    <t>现实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +99,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -114,8 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -396,16 +418,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="3" max="3" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -416,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -427,40 +449,62 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/StoryConfig.xlsx
+++ b/excel2json/excel/StoryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7F68BB-F2F3-404E-9363-FAA5C112775F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3385C724-F8C5-45FC-8BB4-ECB08E6ABFE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>我害怕这样的自己，我已然分不清痛苦和快乐，火焰升起的时候，那惨叫是多么美妙啊，身边都是赞美的声音，可是为什么我心里好痛？我不懂，不懂，或者我真的病了吧，睡吧。</t>
   </si>
   <si>
-    <t>最终，你还是到这里了，现在该是你醒来的时刻了，我已经不恨你了，当火焰吞噬我的生命的时刻，我是幸福的，病痛的折磨已经让我无以为继，谢谢你，让我解脱，我亲爱的主人，别在自责了，我会一直陪着你的，在你每一个美丽的梦里。</t>
-  </si>
-  <si>
     <t>梦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +75,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猫得了传染病，中世纪时期，生病的东西和死的东西都要烧掉，最后主角被逼破亲手烧死了自己得病的猫拯救了家人，主角在猫疼苦的喊叫中陷入深深的自责中，进而封闭内心，不断的自责和拯救了所有人的矛盾之中。最后人格分裂陷入黑暗世界，通关后被猫原谅获得救赎</t>
-  </si>
-  <si>
     <t>现实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终，你还是到这里了，现在该是你醒来的时刻了，我已经不恨你了，火焰吞噬我的生命的时刻，我是幸福的，病痛的折磨已经让我无以为继，谢谢你，让我解脱，我亲爱的主人，别在自责了，我会一直陪着你的，在你每一个美丽的梦里。(制作名单：不二队。策划：山海。程序：铁米、艾森、秋影、春雪。美术：秋影、抹茶、青岚、七笙。剧情：七笙、抹茶、青岚。发行：初九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角的猫得了传染病，中世纪时期，生病的东西和死的东西都要烧掉，最后主角被逼迫亲手烧死了自己得病的猫拯救了家人，主角在猫痛苦的喊叫中陷入深深的自责，进而封闭内心，在不断的自责和拯救了所有人的矛盾之中，最终人格分裂陷入黑暗世界，通关后被猫原谅获得救赎。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -457,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -468,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -479,21 +481,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
@@ -501,11 +503,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
